--- a/sentiment_results_Q2.xlsx
+++ b/sentiment_results_Q2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.506321907043457</v>
+        <v>-0.4301083087921143</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3075322508811951</v>
+        <v>-0.3430689573287964</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -479,18 +479,18 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All, Sector trend</t>
+          <t>Financial metric - All, Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Very good execution of our 2023 Cloud spending reduction plan. Implemented additional actions to increase spending reduction in 2023 to $210 million and in 2024 to $275 million.</t>
+          <t>Implemented additional actions to increase spending reduction in 2023 to $210 million and in 2024 to $275 million.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5101482272148132</v>
+        <v>-0.2538039982318878</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.585932731628418</v>
+        <v>-0.2223331779241562</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5781437158584595</v>
+        <v>-0.269467294216156</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5167792439460754</v>
+        <v>-0.2041653990745544</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4772805571556091</v>
+        <v>-0.2806662917137146</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.523253321647644</v>
+        <v>-0.2766211032867432</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -599,322 +599,322 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Revising guidance downward to reflect expected impact of weaker than expected U.S. mortgage originations reducing full year 2023 revenue at the midpoint to $5.300 billion. Adjusted EPS guidance revised downward to $6.98 per share at the midpoint from lower mortgage revenue.</t>
+          <t>mortgage originations reducing full year 2023 revenue at the midpoint to $5.300 billion</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1706688404083252</v>
+        <v>-0.06715773046016693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Market share, Units per transaction, Market share</t>
+          <t>Recurring revenue, 2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>"Equifax had a solid second quarter against a continuing challenging mortgage market, with very good execution against our 2023 Cloud spending reduction plan. Revenue growth of 1% in constant currency was at about the midpoint of our guidance, with continued strong new product performance with a New Product Vitality Index of 14%, a record for Equifax. However, later in the quarter, we saw U.S. mortgage activity at levels below our expectations and slowing U.S. hiring activity, which impacted revenue particularly in Workforce Solutions. Workforce Solutions continued to substantially outperform the underlying mortgage and talent markets, and delivered very strong revenue growth in Government. USIS delivered a strong quarter, which included strong Online B2B non-mortgage growth of 9%, and International delivered constant currency revenue growth of 7%, which was above our expectations," said Mark W. Begor, CEO of Equifax.</t>
+          <t>Adjusted EPS guidance revised downward to $6.98 per share at the midpoint from lower mortgage revenue.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02833521366119385</v>
+        <v>-0.06715773046016693</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Revenue, Core growth, Recurring revenue, Aftermarket growth, Loan growth, Revenue Growth Acceleration, Revenue Growth Deceleration, Product Cycle / Upcoming Product Cycle, Credit portfolio performance, New store productivity, Organic growth, Premium growth</t>
+          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>second largest credit bureau in Brazil, and we expect to close the strategic acquisition in early August. This merger will expand Equifax capabilities in the large and fast- growing Brazilian market and add to our diverse International portfolio, while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries."</t>
+          <t>Revenue growth of 1% in constant currency was at about the midpoint of our guidance, with continued strong new product performance with a New Product Vitality Index of 14%, a record for Equifax</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2672691941261292</v>
+        <v>0.1289145052433014</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hard market, Seasonal products</t>
+          <t>Revenue, Core growth, Aftermarket growth, Loan growth, Revenue Growth Acceleration, Revenue Growth Deceleration, Product Cycle / Upcoming Product Cycle, Credit portfolio performance, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>"We expect the weaker than expected U.S. mortgage market that we saw in June to continue, and we now expect full year mortgage originations to decline about 37%, which is down five percentage points from our prior framework. We also expect to see the slowing in U.S. hiring to continue throughout 2023, but expect to offset this impact on non-mortgage revenue with stronger growth in the Workforce Government business, as well as solid performance in USIS and International. As we look to our Full Year 2023 guidance, we are reducing our Revenue guidance to $5.300 billion at the midpoint reflecting the more negative impact of the weaker mortgage market and loss of high margin mortgage revenue. We are taking actions to realize additional Cloud spending reductions of $10 million in the second half. Our full year Adjusted EPS Guidance is now $6.98 at the midpoint, reflecting the impact of the lower mortgage revenue."</t>
+          <t>hiring activity, which impacted revenue particularly in Workforce Solutions</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3047177195549011</v>
+        <v>0.1289145052433014</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Revenue, Earnings per Share / EPS, Gross margin, Guidance, Contribution margin, Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Hard market, Revenue Growth Acceleration, Revenue Growth Deceleration, Credit portfolio performance, Organic growth, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend, Macro, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leverage our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide to drive future growth in 2023 and beyond. We are energized about the New Equifax and remain confident in our long-term 8-12% revenue growth framework that will deliver higher margins and free cash flow."</t>
+          <t>Workforce Solutions continued to substantially outperform the underlying mortgage and talent markets, and delivered very strong revenue growth in Government</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07137145102024078</v>
+        <v>0.1289145052433014</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pre-tax margins, Operating margins, Sales leverage, Incremental margins, Core growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The company reported revenue of $1,317.6 million in the second quarter of 2023, flat compared to the second quarter of 2022 on a reported basis and up 1% on a local currency basis.</t>
+          <t>USIS delivered a strong quarter, which included strong Online B2B non-mortgage growth of 9%, and International delivered constant currency revenue growth of 7%, which was above our expectations," said Mark W</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3335826396942139</v>
+        <v>0.1289145052433014</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax of $138.3 million was down 31% in the second quarter of 2023 compared to $200.6 million in the second quarter of 2022.</t>
+          <t>This merger will expand Equifax capabilities in the large and fast- growing Brazilian market and add to our diverse International portfolio, while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries."</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02698862925171852</v>
+        <v>0.03756815940141678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Hard market, Seasonal products</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax was $ 1.12 for the second quarter of 2023, down 31% compared to $1.63 in the second quarter of 2022.</t>
+          <t>mortgage market that we saw in June to continue, and we now expect full year mortgage originations to decline about 37%, which is down five percentage points from our prior framework</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1648049056529999</v>
+        <v>0.2658222913742065</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>2 year – 10 year spread, Hard market</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total revenue was $582.8 million in the second quarter of 2023, down 4% compared to the second quarter of 2022. Operating margin for Workforce Solutions was 42.0% in the second quarter of 2023 compared to 46.2% in the second quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 51.5% in the second quarter of 2023 compared to 53.4% in the second quarter of 2022.</t>
+          <t>hiring to continue throughout 2023, but expect to offset this impact on non-mortgage revenue with stronger growth in the Workforce Government business, as well as solid performance in USIS and International</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1914947032928467</v>
+        <v>0.2658222913742065</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Credit portfolio performance, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Verification Services revenue was $474.0 million, down 6% compared to the second quarter of 2022.</t>
+          <t>As we look to our Full Year 2023 guidance, we are reducing our Revenue guidance to $5.300 billion at the midpoint reflecting the more negative impact of the weaker mortgage market and loss of high margin mortgage revenue</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4555379152297974</v>
+        <v>0.2658222913742065</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Revenue, Gross margin, Contribution margin, Recurring revenue, Hard market, Revenue Growth Acceleration, Revenue Growth Deceleration</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Employer Services revenue was $108.8 million, up 4% compared to the second quarter of 2022.</t>
+          <t>Our full year Adjusted EPS Guidance is now $6.98 at the midpoint, reflecting the impact of the lower mortgage revenue."</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4472736716270447</v>
+        <v>0.2658222913742065</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Earnings per Share / EPS, Guidance, 2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Total revenue was $ 445.0 million in the second quarter of 2023, up 6% compared to $421.4 million in the second quarter of 2022. Operating margin for USIS was 23.1% in the second quarter of 2023 compared to 26.6% in the second quarter of 2022. Adjusted EBITDA margin for USIS was 36.0% in the second quarter of 2023 compared to 38.2% in the second quarter of 2022.</t>
+          <t>"We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leverage our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide to drive future growth in 2023 and beyond</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1088839173316956</v>
+        <v>-0.1484478712081909</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>Sales leverage, Core growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Online Information Solutions revenue was $358.6 million, up 9% compared to the second quarter of 2022.</t>
+          <t>We are energized about the New Equifax and remain confident in our long-term 8-12% revenue growth framework that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3880757093429565</v>
+        <v>-0.1484478712081909</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Pre-tax margins, Operating margins, Incremental margins, Core growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mortgage Solutions revenue was $30.3 million, down 18% compared to the second quarter of 2022.</t>
+          <t>The company reported revenue of $1,317.6 million in the second quarter of 2023, flat compared to the second quarter of 2022 on a reported basis and up 1% on a local currency basis.</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4652953743934631</v>
+        <v>-0.4055392146110535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recurring revenue, Mortgage Fees</t>
+          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Financial metric - All, Financial metric - Bank</t>
+          <t>Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Financial Marketing Services revenue was $56.1 million, up 1% compared to the second quarter of 2022.</t>
+          <t>Net income attributable to Equifax of $138.3 million was down 31% in the second quarter of 2023 compared to $200.6 million in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4186310768127441</v>
+        <v>-0.1885013282299042</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Total revenue was $289.8 million in the second quarter of 2023, up 1% and 7% compared to the second quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 11.9% in the second quarter of 2023, compared to 11.3% in the second quarter of 2022. Adjusted EBITDA margin for International was 24.2% in the second quarter of 2023, compared to 24.7% in the second quarter of 2022.</t>
+          <t>Diluted EPS attributable to Equifax was $ 1.12 for the second quarter of 2023, down 31% compared to $1.63 in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7189422845840454</v>
+        <v>-0.2004710137844086</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -926,11 +926,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Asia Pacific revenue was $87.7 million, down 3% and up 4% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Total revenue was $582.8 million in the second quarter of 2023, down 4% compared to the second quarter of 2022</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3590172827243805</v>
+        <v>0.1172949820756912</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -946,15 +946,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Europe revenue was $78.7 million, down 1% and 2% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Operating margin for Workforce Solutions was 42.0% in the second quarter of 2023 compared to 46.2% in the second quarter of 2022</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3834023475646973</v>
+        <v>0.1172949820756912</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -966,15 +966,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Canada revenue was $66.5 million, up 4% and 8% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Adjusted EBITDA margin for Workforce Solutions was 51.5% in the second quarter of 2023 compared to 53.4% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3126818537712097</v>
+        <v>0.1172949820756912</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -986,11 +986,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Latin America revenue was $56.9 million, up 9% and 23% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Verification Services revenue was $474.0 million, down 6% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3735998868942261</v>
+        <v>-0.3779808282852173</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1006,35 +1006,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
+          <t>Employer Services revenue was $108.8 million, up 4% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3994133174419403</v>
+        <v>-0.328417956829071</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Adjusted EPS attributable to Equifax was $1.71 in the second quarter of 2023, down 18% compared to the second quarter of 2022.</t>
+          <t>Total revenue was $ 445.0 million in the second quarter of 2023, up 6% compared to $421.4 million in the second quarter of 2022</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1636688858270645</v>
+        <v>0.05345095694065094</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1046,15 +1046,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA margin was 32.7% in the second quarter of 2023 compared to 35.0% in the second quarter of 2022.</t>
+          <t>Operating margin for USIS was 23.1% in the second quarter of 2023 compared to 26.6% in the second quarter of 2022</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2819796800613403</v>
+        <v>0.05345095694065094</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1066,35 +1066,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Third quarter and full year guidance excludes Boa Vista Serviços results.</t>
+          <t>Adjusted EBITDA margin for USIS was 36.0% in the second quarter of 2023 compared to 38.2% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.357864648103714</v>
+        <v>0.05345095694065094</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Earnings Conference Call and Audio Webcast</t>
+          <t>Online Information Solutions revenue was $358.6 million, up 9% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5058580636978149</v>
+        <v>-0.3633750081062317</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Earnings, Earnings per Share / EPS</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1106,95 +1106,95 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, realignment of internal resources and other costs and Argentina highly inflationary foreign currency adjustment. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items. These are important financial measures for Equifax but are not financial measures as defined by GAAP.</t>
+          <t>Mortgage Solutions revenue was $30.3 million, down 18% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1196490228176117</v>
+        <v>-0.3691742420196533</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Gross margin, Contribution margin, Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Recurring revenue, Mortgage Fees</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
+          <t>Financial Marketing Services revenue was $56.1 million, up 1% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02399890124797821</v>
+        <v>-0.3591092526912689</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>operations, performance, business prospects and opportunities, the U.S. mortgage market, economic conditions and effective tax rates. While the Company believes these factors and assumptions to be reasonable based on information currently available, they may prove to be incorrect.</t>
+          <t>Total revenue was $289.8 million in the second quarter of 2023, up 1% and 7% compared to the second quarter of 2022 on a reported and local currency basis, respectively</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.344748854637146</v>
+        <v>0.12802454829216</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Terms and conditions</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Operating margin for International was 11.9% in the second quarter of 2023, compared to 11.3% in the second quarter of 2022</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.3922537267208099</v>
+        <v>0.12802454829216</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Exchange Volume / Trading Volume, Credit cost, Green financing, 2 year – 10 year spread, Regulation, Climate risk, Interest rates, ECB interest rate, Peak regulation, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Price increases, Same store sales comps, Same Store sales, Risk adjustment, Order rates, Price cost spread, Terms and conditions</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Regulation, Sector trend, Macro, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Operating activities:</t>
+          <t>Adjusted EBITDA margin for International was 24.2% in the second quarter of 2023, compared to 24.7% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4485604763031006</v>
+        <v>0.12802454829216</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Operating margins</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1206,275 +1206,275 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Consolidated net income</t>
+          <t>Asia Pacific revenue was $87.7 million, down 3% and up 4% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3348090946674347</v>
+        <v>-0.3575113713741302</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+          <t>Europe revenue was $78.7 million, down 1% and 2% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3750274181365967</v>
+        <v>-0.4269518852233887</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stock-based compensation expense</t>
+          <t>Canada revenue was $66.5 million, up 4% and 8% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3585074841976166</v>
+        <v>-0.386879175901413</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Latin America revenue was $56.9 million, up 9% and 23% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5195295214653015</v>
+        <v>-0.3736418783664703</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bank taxes, Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
+          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3236207067966461</v>
+        <v>-0.2675915956497192</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
+          <t>Adjusted EPS attributable to Equifax was $1.71 in the second quarter of 2023, down 18% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3299343287944794</v>
+        <v>-0.2164276242256165</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cash provided by operating activities</t>
+          <t>Adjusted EBITDA margin was 32.7% in the second quarter of 2023 compared to 35.0% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3096844851970673</v>
+        <v>-0.1356966644525528</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Capital expenditures</t>
+          <t>Third quarter and full year guidance excludes Boa Vista Serviços results.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5026568174362183</v>
+        <v>-0.2386677116155624</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - Insurance, Financial metric - All</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cash used in investing activities</t>
+          <t>Earnings Conference Call and Audio Webcast</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3229970335960388</v>
+        <v>-0.3768911361694336</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Earnings, Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Net short-term borrowings</t>
+          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, realignment of internal resources and other costs and Argentina highly inflationary foreign currency adjustment</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2763047218322754</v>
+        <v>0.3927800953388214</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Dividends paid to Equifax shareholders</t>
+          <t>This earnings release also presents adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3015029430389404</v>
+        <v>0.3927800953388214</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Gross margin, Contribution margin, ECB interest rate, Credit income</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Sector trend, Regulation</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dividends paid to noncontrolling interests</t>
+          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3083744645118713</v>
+        <v>-0.3241941630840302</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Earnings per Share / EPS, Credit income</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Payment of taxes related to settlement of equity awards</t>
+          <t>mortgage market, economic conditions and effective tax rates</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.230004221200943</v>
+        <v>0.09603193402290344</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bank taxes</t>
+          <t>Interest rates, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Macro, Financial metric - Insurance, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Debt issuance costs</t>
+          <t>mortgage market environment, as well as changes more generally in U.S</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5425271987915039</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Hard market</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1486,255 +1486,255 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cash (used in) provided by financing activities</t>
+          <t>and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2455111294984818</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Green financing, Promotional activities</t>
+          <t>Interest rates, ECB interest rate, Seasonal products, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Macro, Financial metric - Insurance, Sector trend, Regulation</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Effect of foreign currency exchange rates on cash and cash equivalents Decrease in cash and cash equivalents</t>
+          <t>Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4881899952888489</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates</t>
+          <t>ECB interest rate, Seasonal products, Price increases, Terms and conditions</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Macro, Sector trend</t>
+          <t>Financial metric - Insurance, Sector trend, Regulation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Common Questions &amp; Answers (Unaudited)</t>
+          <t>It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.6468250155448914</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
+          <t>Green financing</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1. Can you provide a further analysis of operating revenue by operating segment?</t>
+          <t>Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.405045211315155</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Climate risk, Interest rates, ECB interest rate, Peak regulation, Seasonal products, Same store sales comps, Same Store sales, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro, Financial metric - Insurance, Sector trend, Regulation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Operating revenue consists of the following components:</t>
+          <t>Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2527351081371307</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Operating margins, Recurring revenue</t>
+          <t>Credit cost, Regulation, Interest rates, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Order rates, Price cost spread</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro, Sector trend, Financial metric - Bank, Regulation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
+          <t>A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3102176487445831</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>Risk Factors" and in our other filings with the U.S</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.3229548335075378</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Risk adjustment, Premium growth</t>
+          <t>Risk adjustment</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend, Macro, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 third quarter and full year guidance provided?</t>
+          <t>Securities and Exchange Commission</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.3104492425918579</v>
+        <v>0.2329612523317337</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
+          <t>Exchange Volume / Trading Volume</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
+          <t>Operating activities:</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.06130000948905945</v>
+        <v>-0.4022560715675354</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, 2 year – 10 year spread, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
+          <t>Operating margins</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(Dollars in millions, except per share amounts)</t>
+          <t>Consolidated net income</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1319372206926346</v>
+        <v>-0.4213713705539703</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Credit income</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and income tax adjustments:</t>
+          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.02550190687179565</v>
+        <v>-0.3261017501354218</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Credit income</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(In millions, except per share amounts)</t>
+          <t>Stock-based compensation expense</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3450987935066223</v>
+        <v>-0.2583369016647339</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Incentive compensation, Logistics expense</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3964734375476837</v>
+        <v>-0.5213871598243713</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Bank taxes, Credit income</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1746,95 +1746,95 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Acquisition-related amortization expense of certain acquired intangibles</t>
+          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2529652416706085</v>
+        <v>-0.280640184879303</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fair market value adjustment and gain on sale of equity investments (3)</t>
+          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1296368688344955</v>
+        <v>-0.1260461807250977</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Risk-weighted assets / Risk-weightings</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Foreign currency impact of certain intercompany loans (4)</t>
+          <t>Cash provided by operating activities</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2369435876607895</v>
+        <v>-0.4353599548339844</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Acquisition-related costs other than acquisition amortization (5) Income tax effects of stock awards that are recognized upon vesting or settlement (6)</t>
+          <t>Capital expenditures</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.07119718194007874</v>
+        <v>-0.4327841103076935</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
+          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All, Macro, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Argentina highly inflationary foreign currency adjustment (7)</t>
+          <t>Cash used in investing activities</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2669877707958221</v>
+        <v>-0.4588386714458466</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1846,55 +1846,55 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Realignment of resources and other costs (8)</t>
+          <t>Net short-term borrowings</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1196807771921158</v>
+        <v>-0.2274914383888245</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax, adjusted for items listed above</t>
+          <t>Dividends paid to Equifax shareholders</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2338413894176483</v>
+        <v>-0.4232670068740845</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Dividends, Preferred Dividends</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax, adjusted for the items listed above Weighted-average shares used in computing diluted EPS</t>
+          <t>Dividends paid to noncontrolling interests</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2175866961479187</v>
+        <v>-0.4586369395256042</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Dividends, Preferred Dividends</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1906,455 +1906,455 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>Payment of taxes related to settlement of equity awards</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2454804480075836</v>
+        <v>-0.3401607871055603</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Bank taxes</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Debt issuance costs</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.0620594322681427</v>
+        <v>-0.2967202067375183</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Distribution costs, Buying costs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Cash (used in) provided by financing activities</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09194034337997437</v>
+        <v>-0.4696890711784363</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Green financing, Promotional activities</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Effect of foreign currency exchange rates on cash and cash equivalents Decrease in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02187752723693848</v>
+        <v>-0.2536163330078125</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Interest rates, Order rates</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Macro, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Common Questions &amp; Answers (Unaudited)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.08633607625961304</v>
+        <v>-0.3357222080230713</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
+          <t>Can you provide a further analysis of operating revenue by operating segment?</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2735358774662018</v>
+        <v>-0.4163068234920502</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Social inflation, Materials inflation, Claims inflation</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Macro, Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Operating revenue consists of the following components:</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2163404524326324</v>
+        <v>-0.4372572302818298</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Operating margins, Recurring revenue</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded the tax impact of adjustments of $18.5 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.3 million ($15.4 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $3.7 million related to the fair market value adjustment and gain on sale of equity investments (vi) a tax adjustment of $5.1 million related to the realignment of internal resources and (v) a tax adjustment of $5.7 million related to acquisition costs other than acquisition-related amortization.</t>
+          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.01187729835510254</v>
+        <v>-0.2952978610992432</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>During the second quarter of 2022, we recorded the tax impact of adjustments of $14.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $10.7 million ($14.8 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $1.0 million related to the loss on fair market value adjustment and gain on sale of equity investments and (iv) a tax adjustment of $2.9 million related to acquisition costs other than acquisition-related amortization.</t>
+          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.0186392217874527</v>
+        <v>0.1848470568656921</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All, Financial metric - Insurance, Sector trend, Macro, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment</t>
+          <t>This adjustment is made for 12 months following the acquisition.</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07424402236938477</v>
+        <v>0.1848470568656921</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Risk adjustment</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>of resources and other costs and presentation of adjusted EBITDA margin:</t>
+          <t>Mortgage Market credit inquiry volume that is included in the 2023 third quarter and full year guidance provided?</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2292789816856384</v>
+        <v>-0.2889854907989502</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Macro, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $2.5 million in 2023 and $0.2 million 2022.</t>
+          <t>The change year over year in total U.S</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2008455693721771</v>
+        <v>0.2001978754997253</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Regulation, Sector trend</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>The guidance provided on page 3 assumes a change year over year in total U.S</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.0620594322681427</v>
+        <v>0.2001978754997253</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1789853572845459</v>
+        <v>0.2001978754997253</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>For full year 2023, our guidance assumes a decline of about 31%.</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02187752723693848</v>
+        <v>0.2001978754997253</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
+          <t>(Dollars in millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2735358774662018</v>
+        <v>-0.4649709463119507</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Social inflation, Materials inflation, Claims inflation</t>
+          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Macro, Sector trend</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and income tax adjustments:</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2163404524326324</v>
+        <v>0.1687054336071014</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and</t>
+          <t>(In millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1295061856508255</v>
+        <v>-0.4399704039096832</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Collateral value, Credit income, Risk adjustment</t>
+          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and presentation of adjusted EBITDA margin for each of the segments:</t>
+          <t>Net income attributable to Equifax</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4129364788532257</v>
+        <v>-0.2697290480136871</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, Distribution costs, Buying costs</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Financial metric - All, Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $0.9 million in International and $1.6 million in General Corporate Expense.</t>
+          <t>Acquisition-related amortization expense of certain acquired intangibles</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1968640089035034</v>
+        <v>-0.1699055731296539</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Logistics expense</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Regulation, Sector trend</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $0.2 million in International.</t>
+          <t>Fair market value adjustment and gain on sale of equity investments (3)</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2853433787822723</v>
+        <v>-0.2122958600521088</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Regulation, Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded pre-tax expenses of $0.3 million for legal expenses related to the 2017 cybersecurity incident, a $10.5 million unrealized gain on the fair value adjustment of equity investments, a $1.8 million foreign currency gain on certain intercompany loans, $26.9 million for acquisition costs other than acquisition-related amortization, a foreign currency loss of $0.1 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $17.5 million of restructuring charges for the realignment of internal resources and other costs.</t>
+          <t>Foreign currency impact of certain intercompany loans (4)</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.1758684366941452</v>
+        <v>-0.3849501609802246</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>During the second quarter of 2022, we recorded pre-tax expenses of $0.5 million for legal expenses related to the 2017 cybersecurity incident, a $6.7 million unrealized loss on the fair value adjustment and gain on sale of equity investments, a $3.0 million foreign currency gain on certain intercompany loans, $12.0 million in acquisition costs other than acquisition-related amortization and a $0.1 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy.</t>
+          <t>Acquisition-related costs other than acquisition amortization (5) Income tax effects of stock awards that are recognized upon vesting or settlement (6)</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.2320168316364288</v>
+        <v>0.01411458849906921</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2366,260 +2366,1580 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
+          <t>Argentina highly inflationary foreign currency adjustment (7)</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.09490542113780975</v>
+        <v>-0.4724487960338593</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Risk adjustment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
+          <t>Realignment of resources and other costs (8)</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.5287635922431946</v>
+        <v>-0.1441487371921539</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Raw material, Wealth Management, Collateral value, Logistics expense, Credit income, Credit portfolio performance</t>
+          <t>Distribution costs, Buying costs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Legal expenses related to the 2017 cybersecurity incident - Legal expenses related to the 2017 cybersecurity incident include legal fees to respond to subsequent litigation and government investigations for both periods presented. During the second quarter of 2023 and 2022, we recorded legal expenses related to the 2017 cybersecurity incident of</t>
+          <t>Net income attributable to Equifax, adjusted for items listed above</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.07101330161094666</v>
+        <v>-0.2540912628173828</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>AML litigation, Credit card fees</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Regulation, Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>$0.3 million ($0.2 million, net of tax) and $0.5 million ($0.4 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods. The legal expenses related to the 2017 cybersecurity incident do not include losses accrued for certain legal proceedings and government investigations related to the 2017 cybersecurity incident.</t>
+          <t>Diluted EPS attributable to Equifax, adjusted for the items listed above Weighted-average shares used in computing diluted EPS</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.8582016229629517</v>
+        <v>-0.005744911730289459</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wealth Management, Credit income, Credit portfolio performance</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the second quarter of 2023, we recorded a $10.5 million ($6.8 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to sale of an equity method investment. During the second quarter of 2022 we recorded a $6.7 million</t>
+          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.2088172882795334</v>
+        <v>0.2334325611591339</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Logistics expense</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.5099878311157227</v>
+        <v>0.2334325611591339</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Wealth Management, Collateral value, Credit portfolio performance</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.5861755609512329</v>
+        <v>0.2334325611591339</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wealth Management, Non-performing loans, Stage 2 loans, Stage 3 loans, Credit portfolio performance</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
+          <t>During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax)</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.608250617980957</v>
+        <v>0.2334325611591339</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wealth Management, Distribution costs, Buying costs, Credit portfolio performance</t>
+          <t>Logistics expense</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.3171972334384918</v>
+        <v>0.2334325611591339</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Incentive compensation, Net Interest Income, Fee Income, Wealth Management, Credit income, Credit portfolio performance</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax)</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.6500251293182373</v>
+        <v>0.1287048757076263</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wealth Management, Risk-weighted assets / Risk-weightings, Social inflation, Materials inflation, Claims inflation, Credit portfolio performance, Risk adjustment</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Charge related to the realignment of internal resources and other costs- During the second quarter of 2023, we recorded $17.5 million ($12.4 million, net of tax) of restructuring charges for the realignment of internal resources and other costs, which predominantly relates to the reduction of headcount and the realignment of our internal resources to support the Company's strategic objectives. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our</t>
+          <t>During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax)</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1539765745401382</v>
+        <v>0.1287048757076263</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Net Charge Off, Wealth Management</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>financial results for the three months ended June 30, 2023, since the charges are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.02896082401275635</v>
+        <v>0.1287048757076263</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Credit portfolio performance</t>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.5377127528190613</v>
+        <v>-0.05682158470153809</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income, Credit portfolio performance</t>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.05682158470153809</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The impact was recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.05682158470153809</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Credit income</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.174206480383873</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.174206480383873</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Logistics expense, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.1027554869651794</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Macro, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.2155438661575317</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded the tax impact of adjustments of $18.5 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.3 million ($15.4 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $3.7 million related to the fair market value adjustment and gain on sale of equity investments (vi) a tax adjustment of $5.1 million related to the realignment of internal resources and (v) a tax adjustment of $5.7 million related to acquisition costs other than acquisition-related amortization.</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3093661069869995</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded the tax impact of adjustments of $14.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $10.7 million ($14.8 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $1.0 million related to the loss on fair market value adjustment and gain on sale of equity investments and (iv) a tax adjustment of $2.9 million related to acquisition costs other than acquisition-related amortization.</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.2938736975193024</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.08038297295570374</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>of resources and other costs and presentation of adjusted EBITDA margin:</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.1490659266710281</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>*Excludes interest income of $2.5 million in 2023 and $0.2 million 2022.</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.3164077401161194</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax)</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1287048757076263</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax)</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1287048757076263</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1287048757076263</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.1279512047767639</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.1279512047767639</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1837787628173828</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Credit income</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.1027554869651794</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Macro, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.2155438661575317</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.05711057782173157</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Collateral value, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and presentation of adjusted EBITDA margin for each of the segments:</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.1542750000953674</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>*Excludes interest income of $0.9 million in International and $1.6 million in General Corporate Expense.</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.2854507267475128</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>*Excludes interest income of $0.2 million in International.</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.3629787564277649</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2023, we recorded pre-tax expenses of $0.3 million for legal expenses related to the 2017 cybersecurity incident, a $10.5 million unrealized gain on the fair value adjustment of equity investments, a $1.8 million foreign currency gain on certain intercompany loans, $26.9 million for acquisition costs other than acquisition-related amortization, a foreign currency loss of $0.1 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $17.5 million of restructuring charges for the realignment of internal resources and other costs.</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.1129253059625626</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded pre-tax expenses of $0.5 million for legal expenses related to the 2017 cybersecurity incident, a $6.7 million unrealized loss on the fair value adjustment and gain on sale of equity investments, a $3.0 million foreign currency gain on certain intercompany loans, $12.0 million in acquisition costs other than acquisition-related amortization and a $0.1 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy.</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.113863542675972</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.09048683941364288</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Earnings per Share / EPS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Logistics expense</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Raw material, Logistics expense, Credit income</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Wealth Management, Logistics expense, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Raw material, Credit income</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Wealth Management, Collateral value, Credit income</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.3957741260528564</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Legal expenses related to the 2017 cybersecurity incident - Legal expenses related to the 2017 cybersecurity incident include legal fees to respond to subsequent litigation and government investigations for both periods presented</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.01191684603691101</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>AML litigation, Credit card fees</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1634657979011536</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1634657979011536</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit income, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1634657979011536</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the second quarter of 2023, we recorded a $10.5 million ($6.8 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to sale of an equity method investment</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.2379211932420731</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.2585161328315735</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Collateral value</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.2585161328315735</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2585161328315735</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.2585161328315735</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.2837246060371399</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.2837246060371399</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.2837246060371399</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.3427938222885132</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3427938222885132</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Credit income</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.3427938222885132</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3427938222885132</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.3748415112495422</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.3748415112495422</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.3748415112495422</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Credit cost, Wealth Management, Fuel cost, Credit income, Price cost spread</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3748415112495422</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.2389508485794067</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Risk adjustment, Order rates</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Macro, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.2389508485794067</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2389508485794067</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.2389508485794067</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Charge related to the realignment of internal resources and other costs- During the second quarter of 2023, we recorded $17.5 million ($12.4 million, net of tax) of restructuring charges for the realignment of internal resources and other costs, which predominantly relates to the reduction of headcount and the realignment of our internal resources to support the Company's strategic objectives</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.01966631412506104</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Net Charge Off</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.01966631412506104</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.0212840810418129</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.2545928955078125</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.2545928955078125</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Financial metric - All, Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
